--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -7,16 +7,186 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grupo A" sheetId="1" r:id="rId1"/>
+    <sheet name="Grupo B" sheetId="2" r:id="rId2"/>
+    <sheet name="Grupo C" sheetId="3" r:id="rId3"/>
+    <sheet name="Grupo D" sheetId="4" r:id="rId4"/>
+    <sheet name="Grupo E" sheetId="5" r:id="rId5"/>
+    <sheet name="Grupo F" sheetId="6" r:id="rId6"/>
+    <sheet name="Grupo G" sheetId="7" r:id="rId7"/>
+    <sheet name="Grupo H" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Nome do Time</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Vitórias</t>
+  </si>
+  <si>
+    <t>Empates</t>
+  </si>
+  <si>
+    <t>Derrotas</t>
+  </si>
+  <si>
+    <t>Total Cartola</t>
+  </si>
+  <si>
+    <t>Cartola Sofrido</t>
+  </si>
+  <si>
+    <t>Saldo Cartola</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>Grupo A</t>
+  </si>
+  <si>
+    <t>SUPER VASCÃO F.C</t>
+  </si>
+  <si>
+    <t>Fedato Futebol Clube</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
+    <t>Rolo Compressor ZN</t>
+  </si>
+  <si>
+    <t>Grupo B</t>
+  </si>
+  <si>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
+    <t>FBC Colorado</t>
+  </si>
+  <si>
+    <t>MauHumor F.C.</t>
+  </si>
+  <si>
+    <t>Grupo C</t>
+  </si>
+  <si>
+    <t>SERGRILLO</t>
+  </si>
+  <si>
+    <t>Paulo Virgili FC</t>
+  </si>
+  <si>
+    <t>Pity10</t>
+  </si>
+  <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
+    <t>Grupo D</t>
+  </si>
+  <si>
+    <t>KillerColorado</t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>cartola scheuer</t>
+  </si>
+  <si>
+    <t>Grupo E</t>
+  </si>
+  <si>
+    <t>Gremiomaniasm</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>Dom Camillo68</t>
+  </si>
+  <si>
+    <t>Laranjja Mecannica</t>
+  </si>
+  <si>
+    <t>Grupo F</t>
+  </si>
+  <si>
+    <t>FC Los Castilho</t>
+  </si>
+  <si>
+    <t>Real SCI</t>
+  </si>
+  <si>
+    <t>Noah A 10</t>
+  </si>
+  <si>
+    <t>Lá do Itaqui</t>
+  </si>
+  <si>
+    <t>Grupo G</t>
+  </si>
+  <si>
+    <t>Tatols Beants F.C</t>
+  </si>
+  <si>
+    <t>S.E.R. GRILLO</t>
+  </si>
+  <si>
+    <t>KING LEONN</t>
+  </si>
+  <si>
+    <t>teves_futsal20 f.c</t>
+  </si>
+  <si>
+    <t>Grupo H</t>
+  </si>
+  <si>
+    <t>BORGES ITAQUI F.C.</t>
+  </si>
+  <si>
+    <t>A Lenda Super Vasco F.c</t>
+  </si>
+  <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
+    <t>RHANKA DENTY FC25</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +210,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +528,1384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>21.2</v>
+      </c>
+      <c r="H2">
+        <v>10.8</v>
+      </c>
+      <c r="I2">
+        <v>10.4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4.1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>4.1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10.8</v>
+      </c>
+      <c r="H4">
+        <v>21.2</v>
+      </c>
+      <c r="I4">
+        <v>-10.4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.1</v>
+      </c>
+      <c r="I5">
+        <v>-4.1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>21.4</v>
+      </c>
+      <c r="H2">
+        <v>1.7</v>
+      </c>
+      <c r="I2">
+        <v>19.7</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H3">
+        <v>4.1</v>
+      </c>
+      <c r="I3">
+        <v>5.700000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.1</v>
+      </c>
+      <c r="H4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-5.700000000000001</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.7</v>
+      </c>
+      <c r="H5">
+        <v>21.4</v>
+      </c>
+      <c r="I5">
+        <v>-19.7</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>13.2</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4.65</v>
+      </c>
+      <c r="H3">
+        <v>-1.2</v>
+      </c>
+      <c r="I3">
+        <v>5.850000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>13.2</v>
+      </c>
+      <c r="I4">
+        <v>-13</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1.2</v>
+      </c>
+      <c r="H5">
+        <v>4.65</v>
+      </c>
+      <c r="I5">
+        <v>-5.850000000000001</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5.8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5.8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4.1</v>
+      </c>
+      <c r="H3">
+        <v>3.3</v>
+      </c>
+      <c r="I3">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.3</v>
+      </c>
+      <c r="H4">
+        <v>4.1</v>
+      </c>
+      <c r="I4">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5.8</v>
+      </c>
+      <c r="I5">
+        <v>-5.8</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>19.1</v>
+      </c>
+      <c r="H2">
+        <v>2.8</v>
+      </c>
+      <c r="I2">
+        <v>16.3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>12.8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12.8</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.8</v>
+      </c>
+      <c r="H4">
+        <v>19.1</v>
+      </c>
+      <c r="I4">
+        <v>-16.3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>12.8</v>
+      </c>
+      <c r="I5">
+        <v>-12.8</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>15.7</v>
+      </c>
+      <c r="H2">
+        <v>7.44</v>
+      </c>
+      <c r="I2">
+        <v>8.259999999999998</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4.1</v>
+      </c>
+      <c r="H3">
+        <v>-1.3</v>
+      </c>
+      <c r="I3">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7.44</v>
+      </c>
+      <c r="H4">
+        <v>15.7</v>
+      </c>
+      <c r="I4">
+        <v>-8.259999999999998</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1.3</v>
+      </c>
+      <c r="H5">
+        <v>4.1</v>
+      </c>
+      <c r="I5">
+        <v>-5.399999999999999</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>11.16</v>
+      </c>
+      <c r="H2">
+        <v>4.7</v>
+      </c>
+      <c r="I2">
+        <v>6.46</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5.3</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>5.1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.7</v>
+      </c>
+      <c r="H4">
+        <v>11.16</v>
+      </c>
+      <c r="I4">
+        <v>-6.46</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>5.3</v>
+      </c>
+      <c r="I5">
+        <v>-5.1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>31.56</v>
+      </c>
+      <c r="H2">
+        <v>4.1</v>
+      </c>
+      <c r="I2">
+        <v>27.46</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>12.8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12.8</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.1</v>
+      </c>
+      <c r="H4">
+        <v>31.56</v>
+      </c>
+      <c r="I4">
+        <v>-27.46</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>12.8</v>
+      </c>
+      <c r="I5">
+        <v>-12.8</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -74,15 +74,15 @@
     <t>Analove10 ITAQUI GRANDE!!</t>
   </si>
   <si>
+    <t>FBC Colorado</t>
+  </si>
+  <si>
+    <t>MauHumor F.C.</t>
+  </si>
+  <si>
     <t>lsauer fc</t>
   </si>
   <si>
-    <t>FBC Colorado</t>
-  </si>
-  <si>
-    <t>MauHumor F.C.</t>
-  </si>
-  <si>
     <t>Grupo C</t>
   </si>
   <si>
@@ -101,33 +101,33 @@
     <t>Grupo D</t>
   </si>
   <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>cartola scheuer</t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
     <t>KillerColorado</t>
   </si>
   <si>
-    <t>Super Vasco f.c</t>
-  </si>
-  <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
-    <t>cartola scheuer</t>
-  </si>
-  <si>
     <t>Grupo E</t>
   </si>
   <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
     <t>Gremiomaniasm</t>
   </si>
   <si>
-    <t>Texas Club 2025</t>
+    <t>Laranjja Mecannica</t>
   </si>
   <si>
     <t>Dom Camillo68</t>
   </si>
   <si>
-    <t>Laranjja Mecannica</t>
-  </si>
-  <si>
     <t>Grupo F</t>
   </si>
   <si>
@@ -149,28 +149,28 @@
     <t>Tatols Beants F.C</t>
   </si>
   <si>
+    <t>teves_futsal20 f.c</t>
+  </si>
+  <si>
+    <t>KING LEONN</t>
+  </si>
+  <si>
     <t>S.E.R. GRILLO</t>
   </si>
   <si>
-    <t>KING LEONN</t>
-  </si>
-  <si>
-    <t>teves_futsal20 f.c</t>
-  </si>
-  <si>
     <t>Grupo H</t>
   </si>
   <si>
+    <t>A Lenda Super Vasco F.c</t>
+  </si>
+  <si>
     <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
-    <t>A Lenda Super Vasco F.c</t>
+    <t>RHANKA DENTY FC25</t>
   </si>
   <si>
     <t>TEAM LOPES 99</t>
-  </si>
-  <si>
-    <t>RHANKA DENTY FC25</t>
   </si>
 </sst>
 </file>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.2</v>
+        <v>49.86</v>
       </c>
       <c r="H2">
-        <v>10.8</v>
+        <v>44.17</v>
       </c>
       <c r="I2">
-        <v>10.4</v>
+        <v>5.689999999999998</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>46.36</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>40.21</v>
       </c>
       <c r="I3">
-        <v>4.1</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -650,13 +650,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.8</v>
+        <v>44.17</v>
       </c>
       <c r="H4">
-        <v>21.2</v>
+        <v>49.86</v>
       </c>
       <c r="I4">
-        <v>-10.4</v>
+        <v>-5.689999999999998</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>40.21</v>
       </c>
       <c r="H5">
-        <v>4.1</v>
+        <v>46.36</v>
       </c>
       <c r="I5">
-        <v>-4.1</v>
+        <v>-6.149999999999999</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -759,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.4</v>
+        <v>47.72</v>
       </c>
       <c r="H2">
-        <v>1.7</v>
+        <v>37.72</v>
       </c>
       <c r="I2">
-        <v>19.7</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>9.800000000000001</v>
+        <v>38.27</v>
       </c>
       <c r="H3">
-        <v>4.1</v>
+        <v>31.67</v>
       </c>
       <c r="I3">
-        <v>5.700000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -823,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
+        <v>37.72</v>
       </c>
       <c r="H4">
-        <v>9.800000000000001</v>
+        <v>47.72</v>
       </c>
       <c r="I4">
-        <v>-5.700000000000001</v>
+        <v>-10</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -855,13 +855,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7</v>
+        <v>31.67</v>
       </c>
       <c r="H5">
-        <v>21.4</v>
+        <v>38.27</v>
       </c>
       <c r="I5">
-        <v>-19.7</v>
+        <v>-6.600000000000001</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13.2</v>
+        <v>37.96</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>35.36</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.65</v>
+        <v>35.25</v>
       </c>
       <c r="H3">
-        <v>-1.2</v>
+        <v>30.96</v>
       </c>
       <c r="I3">
-        <v>5.850000000000001</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -996,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>35.36</v>
       </c>
       <c r="H4">
-        <v>13.2</v>
+        <v>37.96</v>
       </c>
       <c r="I4">
-        <v>-13</v>
+        <v>-2.600000000000001</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1028,13 +1028,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>-1.2</v>
+        <v>30.96</v>
       </c>
       <c r="H5">
-        <v>4.65</v>
+        <v>35.25</v>
       </c>
       <c r="I5">
-        <v>-5.850000000000001</v>
+        <v>-4.289999999999999</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>52.72</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>52.33</v>
       </c>
       <c r="I2">
-        <v>5.8</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>46.27</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>26.32</v>
       </c>
       <c r="I3">
-        <v>0.7999999999999998</v>
+        <v>19.95</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1169,13 +1169,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>52.33</v>
       </c>
       <c r="H4">
-        <v>4.1</v>
+        <v>52.72</v>
       </c>
       <c r="I4">
-        <v>-0.7999999999999998</v>
+        <v>-0.3900000000000006</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>26.32</v>
       </c>
       <c r="H5">
-        <v>5.8</v>
+        <v>46.27</v>
       </c>
       <c r="I5">
-        <v>-5.8</v>
+        <v>-19.95</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19.1</v>
+        <v>52.57</v>
       </c>
       <c r="H2">
-        <v>2.8</v>
+        <v>34.06</v>
       </c>
       <c r="I2">
-        <v>16.3</v>
+        <v>18.51</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>12.8</v>
+        <v>29.76</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="I3">
-        <v>12.8</v>
+        <v>6.360000000000003</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1342,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8</v>
+        <v>34.06</v>
       </c>
       <c r="H4">
-        <v>19.1</v>
+        <v>52.57</v>
       </c>
       <c r="I4">
-        <v>-16.3</v>
+        <v>-18.51</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1374,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="H5">
-        <v>12.8</v>
+        <v>29.76</v>
       </c>
       <c r="I5">
-        <v>-12.8</v>
+        <v>-6.360000000000003</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15.7</v>
+        <v>45.92</v>
       </c>
       <c r="H2">
-        <v>7.44</v>
+        <v>37.94</v>
       </c>
       <c r="I2">
-        <v>8.259999999999998</v>
+        <v>7.980000000000004</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>43.77</v>
       </c>
       <c r="H3">
-        <v>-1.3</v>
+        <v>31.19</v>
       </c>
       <c r="I3">
-        <v>5.399999999999999</v>
+        <v>12.58</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1515,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.44</v>
+        <v>37.94</v>
       </c>
       <c r="H4">
-        <v>15.7</v>
+        <v>45.92</v>
       </c>
       <c r="I4">
-        <v>-8.259999999999998</v>
+        <v>-7.980000000000004</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1547,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>-1.3</v>
+        <v>31.19</v>
       </c>
       <c r="H5">
-        <v>4.1</v>
+        <v>43.77</v>
       </c>
       <c r="I5">
-        <v>-5.399999999999999</v>
+        <v>-12.58</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.16</v>
+        <v>55.71</v>
       </c>
       <c r="H2">
-        <v>4.7</v>
+        <v>33.52</v>
       </c>
       <c r="I2">
-        <v>6.46</v>
+        <v>22.19</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5.3</v>
+        <v>41.27</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>17.52</v>
       </c>
       <c r="I3">
-        <v>5.1</v>
+        <v>23.75</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.7</v>
+        <v>33.52</v>
       </c>
       <c r="H4">
-        <v>11.16</v>
+        <v>55.71</v>
       </c>
       <c r="I4">
-        <v>-6.46</v>
+        <v>-22.19</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1720,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>17.52</v>
       </c>
       <c r="H5">
-        <v>5.3</v>
+        <v>41.27</v>
       </c>
       <c r="I5">
-        <v>-5.1</v>
+        <v>-23.75</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31.56</v>
+        <v>55.53</v>
       </c>
       <c r="H2">
-        <v>4.1</v>
+        <v>51.33</v>
       </c>
       <c r="I2">
-        <v>27.46</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>12.8</v>
+        <v>53.26</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>35.87</v>
       </c>
       <c r="I3">
-        <v>12.8</v>
+        <v>17.39</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1861,13 +1861,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
+        <v>51.33</v>
       </c>
       <c r="H4">
-        <v>31.56</v>
+        <v>55.53</v>
       </c>
       <c r="I4">
-        <v>-27.46</v>
+        <v>-4.200000000000003</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1893,13 +1893,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>35.87</v>
       </c>
       <c r="H5">
-        <v>12.8</v>
+        <v>53.26</v>
       </c>
       <c r="I5">
-        <v>-12.8</v>
+        <v>-17.39</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -56,48 +56,48 @@
     <t>Grupo A</t>
   </si>
   <si>
+    <t>Fedato Futebol Clube</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
+    <t>Rolo Compressor ZN</t>
+  </si>
+  <si>
     <t>SUPER VASCÃO F.C</t>
   </si>
   <si>
-    <t>Fedato Futebol Clube</t>
-  </si>
-  <si>
-    <t>seralex</t>
-  </si>
-  <si>
-    <t>Rolo Compressor ZN</t>
-  </si>
-  <si>
     <t>Grupo B</t>
   </si>
   <si>
+    <t>MauHumor F.C.</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
     <t>Analove10 ITAQUI GRANDE!!</t>
   </si>
   <si>
     <t>FBC Colorado</t>
   </si>
   <si>
-    <t>MauHumor F.C.</t>
-  </si>
-  <si>
-    <t>lsauer fc</t>
-  </si>
-  <si>
     <t>Grupo C</t>
   </si>
   <si>
+    <t>Paulo Virgili FC</t>
+  </si>
+  <si>
+    <t>Pity10</t>
+  </si>
+  <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
     <t>SERGRILLO</t>
   </si>
   <si>
-    <t>Paulo Virgili FC</t>
-  </si>
-  <si>
-    <t>Pity10</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
-  </si>
-  <si>
     <t>Grupo D</t>
   </si>
   <si>
@@ -119,13 +119,13 @@
     <t>Texas Club 2025</t>
   </si>
   <si>
+    <t>Dom Camillo68</t>
+  </si>
+  <si>
+    <t>Laranjja Mecannica</t>
+  </si>
+  <si>
     <t>Gremiomaniasm</t>
-  </si>
-  <si>
-    <t>Laranjja Mecannica</t>
-  </si>
-  <si>
-    <t>Dom Camillo68</t>
   </si>
   <si>
     <t>Grupo F</t>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.86</v>
+        <v>74.41015625</v>
       </c>
       <c r="H2">
-        <v>44.17</v>
+        <v>70.56005859375</v>
       </c>
       <c r="I2">
-        <v>5.689999999999998</v>
+        <v>3.85009765625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.36</v>
+        <v>70.81005859375</v>
       </c>
       <c r="H3">
-        <v>40.21</v>
+        <v>68.06005859375</v>
       </c>
       <c r="I3">
-        <v>6.149999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -650,13 +650,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.17</v>
+        <v>70.56005859375</v>
       </c>
       <c r="H4">
-        <v>49.86</v>
+        <v>74.41015625</v>
       </c>
       <c r="I4">
-        <v>-5.689999999999998</v>
+        <v>-3.85009765625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.21</v>
+        <v>68.06005859375</v>
       </c>
       <c r="H5">
-        <v>46.36</v>
+        <v>70.81005859375</v>
       </c>
       <c r="I5">
-        <v>-6.149999999999999</v>
+        <v>-2.75</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -759,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.72</v>
+        <v>70.35986328125</v>
       </c>
       <c r="H2">
-        <v>37.72</v>
+        <v>68.10986328125</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.27</v>
+        <v>62.56005859375</v>
       </c>
       <c r="H3">
-        <v>31.67</v>
+        <v>59.659912109375</v>
       </c>
       <c r="I3">
-        <v>6.600000000000001</v>
+        <v>2.900146484375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -823,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.72</v>
+        <v>68.10986328125</v>
       </c>
       <c r="H4">
-        <v>47.72</v>
+        <v>70.35986328125</v>
       </c>
       <c r="I4">
-        <v>-10</v>
+        <v>-2.25</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -855,13 +855,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.67</v>
+        <v>59.659912109375</v>
       </c>
       <c r="H5">
-        <v>38.27</v>
+        <v>62.56005859375</v>
       </c>
       <c r="I5">
-        <v>-6.600000000000001</v>
+        <v>-2.900146484375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>37.96</v>
+        <v>90.10009765625</v>
       </c>
       <c r="H2">
-        <v>35.36</v>
+        <v>64.259765625</v>
       </c>
       <c r="I2">
-        <v>2.600000000000001</v>
+        <v>25.84033203125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>35.25</v>
+        <v>65.4599609375</v>
       </c>
       <c r="H3">
-        <v>30.96</v>
+        <v>41.860107421875</v>
       </c>
       <c r="I3">
-        <v>4.289999999999999</v>
+        <v>23.599853515625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -996,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.36</v>
+        <v>64.259765625</v>
       </c>
       <c r="H4">
-        <v>37.96</v>
+        <v>90.10009765625</v>
       </c>
       <c r="I4">
-        <v>-2.600000000000001</v>
+        <v>-25.84033203125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1028,13 +1028,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.96</v>
+        <v>41.860107421875</v>
       </c>
       <c r="H5">
-        <v>35.25</v>
+        <v>65.4599609375</v>
       </c>
       <c r="I5">
-        <v>-4.289999999999999</v>
+        <v>-23.599853515625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>52.72</v>
+        <v>75.60986328125</v>
       </c>
       <c r="H2">
-        <v>52.33</v>
+        <v>69.52978515625</v>
       </c>
       <c r="I2">
-        <v>0.3900000000000006</v>
+        <v>6.080078125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.27</v>
+        <v>73.9599609375</v>
       </c>
       <c r="H3">
-        <v>26.32</v>
+        <v>53.9599609375</v>
       </c>
       <c r="I3">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1169,13 +1169,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.33</v>
+        <v>69.52978515625</v>
       </c>
       <c r="H4">
-        <v>52.72</v>
+        <v>75.60986328125</v>
       </c>
       <c r="I4">
-        <v>-0.3900000000000006</v>
+        <v>-6.080078125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.32</v>
+        <v>53.9599609375</v>
       </c>
       <c r="H5">
-        <v>46.27</v>
+        <v>73.9599609375</v>
       </c>
       <c r="I5">
-        <v>-19.95</v>
+        <v>-20</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>52.57</v>
+        <v>84.4599609375</v>
       </c>
       <c r="H2">
-        <v>34.06</v>
+        <v>62.9599609375</v>
       </c>
       <c r="I2">
-        <v>18.51</v>
+        <v>21.5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.76</v>
+        <v>64.91015625</v>
       </c>
       <c r="H3">
-        <v>23.4</v>
+        <v>53.260009765625</v>
       </c>
       <c r="I3">
-        <v>6.360000000000003</v>
+        <v>11.650146484375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1342,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.06</v>
+        <v>62.9599609375</v>
       </c>
       <c r="H4">
-        <v>52.57</v>
+        <v>84.4599609375</v>
       </c>
       <c r="I4">
-        <v>-18.51</v>
+        <v>-21.5</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1374,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.4</v>
+        <v>53.260009765625</v>
       </c>
       <c r="H5">
-        <v>29.76</v>
+        <v>64.91015625</v>
       </c>
       <c r="I5">
-        <v>-6.360000000000003</v>
+        <v>-11.650146484375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.92</v>
+        <v>76.9599609375</v>
       </c>
       <c r="H2">
-        <v>37.94</v>
+        <v>69.39013671875</v>
       </c>
       <c r="I2">
-        <v>7.980000000000004</v>
+        <v>7.56982421875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.77</v>
+        <v>63.9599609375</v>
       </c>
       <c r="H3">
-        <v>31.19</v>
+        <v>50.2900390625</v>
       </c>
       <c r="I3">
-        <v>12.58</v>
+        <v>13.669921875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1515,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.94</v>
+        <v>69.39013671875</v>
       </c>
       <c r="H4">
-        <v>45.92</v>
+        <v>76.9599609375</v>
       </c>
       <c r="I4">
-        <v>-7.980000000000004</v>
+        <v>-7.56982421875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1547,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.19</v>
+        <v>50.2900390625</v>
       </c>
       <c r="H5">
-        <v>43.77</v>
+        <v>63.9599609375</v>
       </c>
       <c r="I5">
-        <v>-12.58</v>
+        <v>-13.669921875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.71</v>
+        <v>85.85986328125</v>
       </c>
       <c r="H2">
-        <v>33.52</v>
+        <v>66.259765625</v>
       </c>
       <c r="I2">
-        <v>22.19</v>
+        <v>19.60009765625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>41.27</v>
+        <v>71.4599609375</v>
       </c>
       <c r="H3">
-        <v>17.52</v>
+        <v>18.81005859375</v>
       </c>
       <c r="I3">
-        <v>23.75</v>
+        <v>52.64990234375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.52</v>
+        <v>66.259765625</v>
       </c>
       <c r="H4">
-        <v>55.71</v>
+        <v>85.85986328125</v>
       </c>
       <c r="I4">
-        <v>-22.19</v>
+        <v>-19.60009765625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1720,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.52</v>
+        <v>18.81005859375</v>
       </c>
       <c r="H5">
-        <v>41.27</v>
+        <v>71.4599609375</v>
       </c>
       <c r="I5">
-        <v>-23.75</v>
+        <v>-52.64990234375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.53</v>
+        <v>87.330078125</v>
       </c>
       <c r="H2">
-        <v>51.33</v>
+        <v>78.93017578125</v>
       </c>
       <c r="I2">
-        <v>4.200000000000003</v>
+        <v>8.39990234375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.26</v>
+        <v>76.06005859375</v>
       </c>
       <c r="H3">
-        <v>35.87</v>
+        <v>69.9599609375</v>
       </c>
       <c r="I3">
-        <v>17.39</v>
+        <v>6.10009765625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1861,13 +1861,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.33</v>
+        <v>78.93017578125</v>
       </c>
       <c r="H4">
-        <v>55.53</v>
+        <v>87.330078125</v>
       </c>
       <c r="I4">
-        <v>-4.200000000000003</v>
+        <v>-8.39990234375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1893,13 +1893,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.87</v>
+        <v>69.9599609375</v>
       </c>
       <c r="H5">
-        <v>53.26</v>
+        <v>76.06005859375</v>
       </c>
       <c r="I5">
-        <v>-17.39</v>
+        <v>-6.10009765625</v>
       </c>
       <c r="J5">
         <v>4</v>
